--- a/data/trans_dic/P15B_tráfico-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P15B_tráfico-Edad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3323817723922369</v>
+        <v>0.326191617332347</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3110112159162191</v>
+        <v>0.3254354023822081</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1416557236278335</v>
+        <v>0.1569819876879311</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1853580543321189</v>
+        <v>0.1708838080793579</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2718070724362647</v>
+        <v>0.2692934161838891</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1560961253053303</v>
+        <v>0.1583478938791014</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3751635194891912</v>
+        <v>0.3789275536794887</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3391929104898693</v>
+        <v>0.3394962067505004</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3331470951535339</v>
+        <v>0.3406715890667956</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1786753949645554</v>
+        <v>0.1959015857136379</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2227771959306911</v>
+        <v>0.2099097541304692</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6863169379762297</v>
+        <v>0.6794134454026228</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5773434314005689</v>
+        <v>0.5862586727511352</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.441034394228102</v>
+        <v>0.4403283065213047</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6152159984332672</v>
+        <v>0.6004482982134846</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7356811954664477</v>
+        <v>0.7377338755490783</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6127077900540795</v>
+        <v>0.6113615926253388</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5795232264726231</v>
+        <v>0.5810785711882439</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9282208057393643</v>
+        <v>0.9220449963389442</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.640461289702574</v>
+        <v>0.6502957721054703</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.5362632920549878</v>
+        <v>0.5392818511213163</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4153642709065973</v>
+        <v>0.4225348881493468</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.6886497767840465</v>
+        <v>0.6825929149071904</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.3980286451630218</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.197444481461102</v>
+        <v>0.1974444814611021</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.3167021284838205</v>
@@ -833,7 +833,7 @@
         <v>0.3076940944415145</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.3560505499320902</v>
+        <v>0.3560505499320903</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.166701688864176</v>
+        <v>0.1665709978971802</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1590322451647401</v>
+        <v>0.16035543708673</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1451618892150794</v>
+        <v>0.157783360159836</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1944317370531374</v>
+        <v>0.2123997228302371</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1164654548334388</v>
+        <v>0.1485235576329473</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1688558502166377</v>
+        <v>0.1746864855486709</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2111870165201418</v>
+        <v>0.2102871941505091</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.0483736629135177</v>
+        <v>0.04891117380142298</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2044656044825073</v>
+        <v>0.1966698148563233</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1972027086732871</v>
+        <v>0.1930666803786847</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2037219190378453</v>
+        <v>0.2151015794876586</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1961349893239371</v>
+        <v>0.1855863539342884</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4840774969134097</v>
+        <v>0.4942057522386948</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.35793164740556</v>
+        <v>0.3595900805239603</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3986636348585085</v>
+        <v>0.3911386100113386</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6825431659495298</v>
+        <v>0.682962077313794</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5850244952776105</v>
+        <v>0.5859827391171645</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4865320621597906</v>
+        <v>0.50128752853384</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.6046395659444634</v>
+        <v>0.6323462903446768</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4735820335611934</v>
+        <v>0.4602330977265476</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.461182304577164</v>
+        <v>0.4600839496370601</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3592338035005553</v>
+        <v>0.3616601613667454</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4252349310734941</v>
+        <v>0.4305997780579117</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.5814474638868454</v>
+        <v>0.566515059731009</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.2357167093887794</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.362518607423464</v>
+        <v>0.3625186074234641</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05673834900083258</v>
+        <v>0.05457191468086479</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1815817539889781</v>
+        <v>0.1743388381524831</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1294869363082256</v>
+        <v>0.133505412832199</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2192959904362496</v>
+        <v>0.2225310813698613</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.06898094830184275</v>
+        <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.09678572239647082</v>
+        <v>0.09674951999116348</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.07317206484140304</v>
+        <v>0.07582308777257796</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2165142640099343</v>
+        <v>0.2176539250871575</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.09681351971158682</v>
+        <v>0.08277864376108547</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1877192189462707</v>
+        <v>0.1715747630936434</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1432724890959766</v>
+        <v>0.1361296257768014</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2573335884136989</v>
+        <v>0.2666278231496894</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4699364942843342</v>
+        <v>0.4402123415571632</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4574117408099349</v>
+        <v>0.4330645554730572</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4188769908857939</v>
+        <v>0.44336557987491</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5548391018647025</v>
+        <v>0.5408398059350913</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5389039504890196</v>
+        <v>0.5173933239226387</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4067082580625374</v>
+        <v>0.4063864209040823</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4447089363396402</v>
+        <v>0.4157666474284109</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5077252884513177</v>
+        <v>0.5166811796795139</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4194910618349687</v>
+        <v>0.3815250267303297</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3822742675374176</v>
+        <v>0.3959716515318147</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3680787796160471</v>
+        <v>0.357381415072057</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4790961866688653</v>
+        <v>0.4862719789107136</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.1314607970228131</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3091852245686865</v>
+        <v>0.3091852245686864</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.3845250203683648</v>
@@ -1105,7 +1105,7 @@
         <v>0.2264135360558036</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.2504284502080588</v>
+        <v>0.2504284502080587</v>
       </c>
     </row>
     <row r="14">
@@ -1119,37 +1119,37 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02609434583047427</v>
+        <v>0.0256239105688073</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03592404598277182</v>
+        <v>0.03551437385806747</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1889971819096702</v>
+        <v>0.2002509329035439</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1161677573834813</v>
+        <v>0.1169374455070394</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.06306506076193387</v>
+        <v>0.06111477286485765</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1629847553176441</v>
+        <v>0.1705425268530828</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.06758806950109006</v>
+        <v>0.06670477976317585</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.08828546804419105</v>
+        <v>0.08463543102371164</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.05910768150959833</v>
+        <v>0.0601114578515738</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1155243285490292</v>
+        <v>0.1249850289836735</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.171226940101696</v>
+        <v>0.1670984786778112</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4370219057014713</v>
+        <v>0.4504925651739436</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2146195472264179</v>
+        <v>0.2176636880620732</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3319072270144611</v>
+        <v>0.3502998981310116</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4507865055932073</v>
+        <v>0.4649269093009907</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7355502308727511</v>
+        <v>0.7369570852485322</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3540742681819076</v>
+        <v>0.3540627538911356</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.5688039660777435</v>
+        <v>0.5813604913637056</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2801230225622729</v>
+        <v>0.2866890427383423</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4402668645123221</v>
+        <v>0.4616117589431057</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2281723669008275</v>
+        <v>0.2368343303253736</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.390495020878407</v>
+        <v>0.3563736674408227</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3607635835235362</v>
+        <v>0.3477965721944259</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.0321793258885524</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.202556049083186</v>
+        <v>0.2025560490831859</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.1030154673962474</v>
@@ -1258,32 +1258,32 @@
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.07171377129344096</v>
+        <v>0.07107015076262903</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1066006223538549</v>
+        <v>0.1051043341335922</v>
       </c>
       <c r="G17" s="5" t="inlineStr"/>
       <c r="H17" s="5" t="n">
-        <v>0.04975584326021601</v>
+        <v>0.04944559323347507</v>
       </c>
       <c r="I17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1049023727562512</v>
+        <v>0.111051745028145</v>
       </c>
       <c r="K17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.05984886413082073</v>
+        <v>0.05792451590433537</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.02387126545044712</v>
+        <v>0.02356889006261184</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1431156931967146</v>
+        <v>0.1343119295102064</v>
       </c>
     </row>
     <row r="18">
@@ -1294,38 +1294,38 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.573259643199547</v>
+        <v>0.5703340478372725</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5010827461689151</v>
+        <v>0.4380118570196081</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5520061293955344</v>
+        <v>0.5361936200042814</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3917242997953976</v>
+        <v>0.3982305300446226</v>
       </c>
       <c r="G18" s="5" t="inlineStr"/>
       <c r="H18" s="5" t="n">
-        <v>0.2620351999762917</v>
+        <v>0.26006277099659</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1591498786240038</v>
+        <v>0.1415012512059761</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3071678399193851</v>
+        <v>0.3104941909872033</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3203238538243425</v>
+        <v>0.3195241432256479</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2595028093017932</v>
+        <v>0.2603703753926084</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.214895706253228</v>
+        <v>0.2176690135460106</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3077591029024831</v>
+        <v>0.3083404916742152</v>
       </c>
     </row>
     <row r="19">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="n">
-        <v>0.07469695949449784</v>
+        <v>0.07788049755914521</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>0</v>
@@ -1403,19 +1403,19 @@
         <v>0</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.07189253109354539</v>
+        <v>0.07115776624308967</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.06212035946804797</v>
+        <v>0.06173835241531283</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.02413389926422384</v>
+        <v>0.04615000737997672</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.09111161671219453</v>
+        <v>0.1036570552926973</v>
       </c>
     </row>
     <row r="21">
@@ -1426,38 +1426,38 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.8182498507484642</v>
+        <v>0.8186638264537967</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.4934154843185115</v>
+        <v>0.4705453326014397</v>
       </c>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="n">
-        <v>0.4043808986017174</v>
+        <v>0.4035455160166479</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.5415227196709784</v>
+        <v>0.5480695750375187</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2317403817732824</v>
+        <v>0.2314571025206776</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1847628856581412</v>
+        <v>0.1879853091100891</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2498094647060699</v>
+        <v>0.2494804459578253</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.4976148571977682</v>
+        <v>0.4752102263912307</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.281339656376853</v>
+        <v>0.2615904069490601</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1344846959928514</v>
+        <v>0.1330042980393519</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2566193642078075</v>
+        <v>0.2655223943658782</v>
       </c>
     </row>
     <row r="22">
@@ -1481,7 +1481,7 @@
         <v>0.05519120892211719</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.01497178876364573</v>
+        <v>0.01497178876364574</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.04750510339278802</v>
@@ -1537,19 +1537,19 @@
         <v>0</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.02012449549107164</v>
+        <v>0.02001380950278674</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.028475926693018</v>
+        <v>0.02853570988948109</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.01372876378105794</v>
+        <v>0.01443165578161682</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.01611193995904769</v>
+        <v>0.01541776674212518</v>
       </c>
     </row>
     <row r="24">
@@ -1560,40 +1560,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.6756791554979525</v>
+        <v>0.8300688669884465</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2886931333770673</v>
+        <v>0.2853263525621274</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2300347713697886</v>
+        <v>0.2292174058703022</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.07440966673008186</v>
+        <v>0.0853550419496235</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.230440129065213</v>
+        <v>0.2162058704071542</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.142042274407332</v>
+        <v>0.1222568944308164</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1724729692517969</v>
+        <v>0.1592881070021445</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1140689161979278</v>
+        <v>0.1186485857934744</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2780034066493457</v>
+        <v>0.2770084049120181</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1263037240008661</v>
+        <v>0.1280295274968283</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.124398553621908</v>
+        <v>0.1284261554215406</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.09076698033085885</v>
+        <v>0.08554724325936146</v>
       </c>
     </row>
     <row r="25">
@@ -1652,40 +1652,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.2389397888752874</v>
+        <v>0.2430528341255305</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2094405095363446</v>
+        <v>0.2065912829350988</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1641820121832644</v>
+        <v>0.1643357651045166</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.2026383402465131</v>
+        <v>0.2077981740745277</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.1316904500080397</v>
+        <v>0.133595793279521</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.144664184189985</v>
+        <v>0.137585550048613</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1186644548354692</v>
+        <v>0.1180463624590602</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1706999571345903</v>
+        <v>0.1668654857630554</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.2153103892925158</v>
+        <v>0.2093866616748172</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1878209631863896</v>
+        <v>0.1909658620308997</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.1560662216198467</v>
+        <v>0.1532792721136718</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.2038398637151009</v>
+        <v>0.200474093143238</v>
       </c>
     </row>
     <row r="27">
@@ -1696,40 +1696,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.4146209890218554</v>
+        <v>0.4179216967580174</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.3159262754222935</v>
+        <v>0.3121480792131686</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2816978945282498</v>
+        <v>0.2843156618762898</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.3364132668823666</v>
+        <v>0.3514563479281673</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.3045724217322173</v>
+        <v>0.3003397287403855</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.2435895379763178</v>
+        <v>0.2393188441249156</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.22975898931318</v>
+        <v>0.2279754496763468</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.2886570450938562</v>
+        <v>0.2881133671487925</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.3407194650105247</v>
+        <v>0.3379099505237056</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.2604894028154898</v>
+        <v>0.2679466037707434</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.2394675345479297</v>
+        <v>0.2370460040923512</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.2891545625034595</v>
+        <v>0.2884977100951789</v>
       </c>
     </row>
     <row r="28">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>11206</v>
+        <v>10998</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>18253</v>
+        <v>19099</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>6080</v>
+        <v>6738</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1962</v>
+        <v>1809</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>8609</v>
+        <v>8530</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2851</v>
+        <v>2892</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>8476</v>
+        <v>8561</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>15027</v>
+        <v>15040</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>30105</v>
+        <v>30784</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>10932</v>
+        <v>11986</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>9644</v>
+        <v>9087</v>
       </c>
     </row>
     <row r="7">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>23139</v>
+        <v>22906</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>33884</v>
+        <v>34407</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>18930</v>
+        <v>18900</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>12733</v>
+        <v>12427</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>7789</v>
+        <v>7810</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>19408</v>
+        <v>19365</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>10584</v>
+        <v>10613</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>20970</v>
+        <v>20831</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>28374</v>
+        <v>28809</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>48459</v>
+        <v>48732</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>25414</v>
+        <v>25853</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>29811</v>
+        <v>29549</v>
       </c>
     </row>
     <row r="8">
@@ -2183,40 +2183,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>5824</v>
+        <v>5819</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>13092</v>
+        <v>13200</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>7382</v>
+        <v>8024</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>6454</v>
+        <v>7051</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>2161</v>
+        <v>2756</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>6422</v>
+        <v>6643</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>4790</v>
+        <v>4769</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>742</v>
+        <v>750</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>10937</v>
+        <v>10520</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>23733</v>
+        <v>23235</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>14981</v>
+        <v>15818</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>9519</v>
+        <v>9007</v>
       </c>
     </row>
     <row r="11">
@@ -2227,40 +2227,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>16912</v>
+        <v>17266</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>29465</v>
+        <v>29601</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>20275</v>
+        <v>19892</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>22658</v>
+        <v>22672</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>10854</v>
+        <v>10872</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>18503</v>
+        <v>19064</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>13713</v>
+        <v>14341</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>7263</v>
+        <v>7059</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>24668</v>
+        <v>24609</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>43233</v>
+        <v>43525</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>31270</v>
+        <v>31665</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>28219</v>
+        <v>27495</v>
       </c>
     </row>
     <row r="12">
@@ -2363,40 +2363,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>847</v>
+        <v>815</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>10271</v>
+        <v>9862</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>4643</v>
+        <v>4787</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>8454</v>
+        <v>8578</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>925</v>
+        <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1833</v>
+        <v>1899</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>6597</v>
+        <v>6631</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>2744</v>
+        <v>2347</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>16135</v>
+        <v>14748</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>8726</v>
+        <v>8291</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>17760</v>
+        <v>18402</v>
       </c>
     </row>
     <row r="15">
@@ -2407,40 +2407,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>7017</v>
+        <v>6573</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>25874</v>
+        <v>24497</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>15020</v>
+        <v>15898</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>21388</v>
+        <v>20849</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>7230</v>
+        <v>6941</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>11952</v>
+        <v>11943</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>11139</v>
+        <v>10414</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>15469</v>
+        <v>15742</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>11891</v>
+        <v>10815</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>32858</v>
+        <v>34035</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>22418</v>
+        <v>21767</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>33065</v>
+        <v>33561</v>
       </c>
     </row>
     <row r="16">
@@ -2546,37 +2546,37 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>969</v>
+        <v>952</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1036</v>
+        <v>1024</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>10361</v>
+        <v>10978</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1123</v>
+        <v>1130</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2209</v>
+        <v>2141</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>3991</v>
+        <v>4176</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2205</v>
+        <v>2176</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>2578</v>
+        <v>2472</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>4266</v>
+        <v>4339</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>6160</v>
+        <v>6664</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>14972</v>
+        <v>14611</v>
       </c>
     </row>
     <row r="19">
@@ -2587,40 +2587,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>8539</v>
+        <v>8802</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>7972</v>
+        <v>8085</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>9570</v>
+        <v>10100</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>24713</v>
+        <v>25489</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>7109</v>
+        <v>7123</v>
       </c>
       <c r="H19" s="6" t="n">
         <v>12404</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>13927</v>
+        <v>14235</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>9137</v>
+        <v>9351</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>12857</v>
+        <v>13480</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>16469</v>
+        <v>17094</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>20820</v>
+        <v>19001</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>31545</v>
+        <v>30411</v>
       </c>
     </row>
     <row r="20">
@@ -2729,32 +2729,32 @@
         <v>0</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>3357</v>
+        <v>3310</v>
       </c>
       <c r="G22" s="6" t="inlineStr"/>
       <c r="H22" s="6" t="n">
-        <v>2078</v>
+        <v>2065</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>4018</v>
+        <v>4254</v>
       </c>
       <c r="K22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>3272</v>
+        <v>3167</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1059</v>
+        <v>1045</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>9989</v>
+        <v>9375</v>
       </c>
     </row>
     <row r="23">
@@ -2765,38 +2765,38 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>5372</v>
+        <v>5345</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>6474</v>
+        <v>5660</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>7722</v>
+        <v>7501</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>12338</v>
+        <v>12543</v>
       </c>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="n">
-        <v>10942</v>
+        <v>10859</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>4831</v>
+        <v>4296</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>11766</v>
+        <v>11893</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>6164</v>
+        <v>6148</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>14189</v>
+        <v>14237</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>9530</v>
+        <v>9653</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>21482</v>
+        <v>21522</v>
       </c>
     </row>
     <row r="24">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="n">
-        <v>1355</v>
+        <v>1413</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0</v>
@@ -2918,19 +2918,19 @@
         <v>0</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>2603</v>
+        <v>2577</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>1029</v>
+        <v>1967</v>
       </c>
       <c r="M26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>4952</v>
+        <v>5633</v>
       </c>
     </row>
     <row r="27">
@@ -2941,38 +2941,38 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>3807</v>
+        <v>3809</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>8535</v>
+        <v>8139</v>
       </c>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>7334</v>
+        <v>7319</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>4935</v>
+        <v>4995</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>5870</v>
+        <v>5863</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>5414</v>
+        <v>5508</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>9045</v>
+        <v>9033</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>6851</v>
+        <v>6542</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>11993</v>
+        <v>11151</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>5411</v>
+        <v>5351</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>13946</v>
+        <v>14430</v>
       </c>
     </row>
     <row r="28">
@@ -3096,19 +3096,19 @@
         <v>0</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>1046</v>
+        <v>1100</v>
       </c>
       <c r="M30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>1284</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="31">
@@ -3119,40 +3119,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>4009</v>
+        <v>4925</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>6360</v>
+        <v>6286</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>3308</v>
+        <v>3296</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>1712</v>
+        <v>1964</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>5208</v>
+        <v>4886</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>7698</v>
+        <v>6625</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>7126</v>
+        <v>6581</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>6462</v>
+        <v>6722</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>7932</v>
+        <v>7904</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>9627</v>
+        <v>9759</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>6929</v>
+        <v>7153</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>7231</v>
+        <v>6815</v>
       </c>
     </row>
     <row r="32">
@@ -3255,40 +3255,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>29408</v>
+        <v>29914</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>60104</v>
+        <v>59286</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>32470</v>
+        <v>32501</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>44562</v>
+        <v>45697</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>12353</v>
+        <v>12532</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>36948</v>
+        <v>35140</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>22719</v>
+        <v>22600</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>39633</v>
+        <v>38743</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>46697</v>
+        <v>45412</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>101870</v>
+        <v>103575</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>60745</v>
+        <v>59660</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>92154</v>
+        <v>90633</v>
       </c>
     </row>
     <row r="35">
@@ -3299,40 +3299,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>51030</v>
+        <v>51437</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>90662</v>
+        <v>89578</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>55711</v>
+        <v>56229</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>73981</v>
+        <v>77289</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>28571</v>
+        <v>28174</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>62214</v>
+        <v>61123</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>43988</v>
+        <v>43647</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>67020</v>
+        <v>66894</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>73896</v>
+        <v>73287</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>141283</v>
+        <v>145328</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>93206</v>
+        <v>92264</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>130724</v>
+        <v>130427</v>
       </c>
     </row>
     <row r="36">
